--- a/pos/POS(김밥나라)/김밥나라-테이블명세서.xlsx
+++ b/pos/POS(김밥나라)/김밥나라-테이블명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\POS(김밥나라)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Nodejs\pos\POS(김밥나라)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -156,35 +156,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>한글가변문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_rem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블  ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매단가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>고정문자열(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>한글가변문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_rem</t>
+    <t>o_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_pcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_buyer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -192,18 +292,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,106 +300,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_orders</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블  ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매단가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_pcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_buyer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AUTO_INCREMENT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>김밥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -360,44 +352,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>P003</t>
-  </si>
-  <si>
-    <t>P004</t>
-  </si>
-  <si>
-    <t>P005</t>
-  </si>
-  <si>
-    <t>P006</t>
-  </si>
-  <si>
-    <t>P007</t>
-  </si>
-  <si>
-    <t>P008</t>
-  </si>
-  <si>
-    <t>P009</t>
-  </si>
-  <si>
-    <t>P010</t>
-  </si>
-  <si>
-    <t>P011</t>
-  </si>
-  <si>
-    <t>P012</t>
-  </si>
-  <si>
     <t>제육덮밥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P013</t>
+    <t>P0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
+  <si>
+    <t>P0007</t>
+  </si>
+  <si>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>P0009</t>
+  </si>
+  <si>
+    <t>P0010</t>
+  </si>
+  <si>
+    <t>P0011</t>
+  </si>
+  <si>
+    <t>P0012</t>
+  </si>
+  <si>
+    <t>P0013</t>
+  </si>
+  <si>
+    <t>고정문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -933,12 +941,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,6 +963,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,7 +1316,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1966,20 +1974,20 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37">
+      <c r="I2" s="33"/>
+      <c r="J2" s="35">
         <v>44435</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1991,36 +1999,36 @@
       <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2065,17 +2073,17 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2090,16 +2098,16 @@
         <v>29</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -2115,16 +2123,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -2140,13 +2148,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -2499,7 +2507,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2510,7 +2518,7 @@
     <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
@@ -3155,22 +3163,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37">
+      <c r="I2" s="33"/>
+      <c r="J2" s="35">
         <v>44435</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -3180,38 +3188,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3253,22 +3261,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3280,19 +3288,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -3305,19 +3313,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -3330,19 +3338,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -3355,19 +3363,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -3380,19 +3388,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -3405,16 +3413,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -3722,7 +3730,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3743,10 +3751,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="30">
         <v>2000</v>
@@ -3757,7 +3765,7 @@
         <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="30">
         <v>3000</v>
@@ -3768,7 +3776,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="30">
         <v>3500</v>
@@ -3779,7 +3787,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="30">
         <v>4000</v>
@@ -3790,7 +3798,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="30">
         <v>6000</v>
@@ -3801,7 +3809,7 @@
         <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="30">
         <v>5000</v>
@@ -3812,7 +3820,7 @@
         <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="30">
         <v>5000</v>
@@ -3823,7 +3831,7 @@
         <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="30">
         <v>4500</v>
@@ -3834,7 +3842,7 @@
         <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="30">
         <v>3500</v>
@@ -3845,7 +3853,7 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="30">
         <v>3500</v>
@@ -3856,7 +3864,7 @@
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="30">
         <v>4500</v>
@@ -3867,7 +3875,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="30">
         <v>5000</v>
@@ -3875,10 +3883,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C14" s="30">
         <v>6000</v>
